--- a/Inventario .xlsx
+++ b/Inventario .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hesalinas\Downloads\TERUMO\ESTATICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39E397D3-0727-4097-97D4-56D7FE36225E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE34B2AE-3AEA-424F-8083-87D341FCFE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AB61749-9EFF-4CFF-8C1A-AD9D6DC11EA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="383">
   <si>
     <t>Equipo</t>
   </si>
@@ -1171,6 +1171,9 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Imagen</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1707,10 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1743,15 +1749,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4C411C7-8E2A-4798-8066-AAD1BDFF8734}" name="Tabla1" displayName="Tabla1" ref="A1:F264" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F264" xr:uid="{C4C411C7-8E2A-4798-8066-AAD1BDFF8734}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B7FD3090-362E-44C6-9418-EE5021D5D7B7}" name="Equipo" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{264A5E0B-7B02-45A7-8348-8F2A0147DAE8}" name="Inventario" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{0DDBD64C-ED32-4E21-B955-09653281B4ED}" name="serie" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E640282E-3FD5-400F-BF53-86FEAA5C1714}" name="Ubicación técnica" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{0DA3FBCD-F57E-4A86-BAE6-DE65B1574C7E}" name="Calibracion" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{C4316949-BC97-434C-B68F-A08F5C2E1540}" name="Observaciones" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4C411C7-8E2A-4798-8066-AAD1BDFF8734}" name="Tabla1" displayName="Tabla1" ref="A1:G264" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G264" xr:uid="{C4C411C7-8E2A-4798-8066-AAD1BDFF8734}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B7FD3090-362E-44C6-9418-EE5021D5D7B7}" name="Equipo" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{264A5E0B-7B02-45A7-8348-8F2A0147DAE8}" name="Inventario" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0DDBD64C-ED32-4E21-B955-09653281B4ED}" name="serie" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E640282E-3FD5-400F-BF53-86FEAA5C1714}" name="Ubicación técnica" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{0DA3FBCD-F57E-4A86-BAE6-DE65B1574C7E}" name="Calibracion" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C4316949-BC97-434C-B68F-A08F5C2E1540}" name="Observaciones" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{990E894F-E09F-48A6-98E4-259ECA39E1CC}" name="Imagen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2074,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8E00CB-85D7-4E0D-8B82-577DA96A7135}">
-  <dimension ref="A1:F264"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2096,7 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2108,8 +2115,11 @@
       <c r="F1" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2124,8 +2134,9 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2140,8 +2151,9 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2156,8 +2168,9 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2172,8 +2185,9 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2188,8 +2202,9 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2202,8 +2217,9 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2218,8 +2234,9 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2232,8 +2249,9 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2248,8 +2266,9 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2262,8 +2281,9 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2276,8 +2296,9 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2292,8 +2313,9 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2308,8 +2330,9 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -2324,8 +2347,9 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2340,8 +2364,9 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -2356,8 +2381,9 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2370,8 +2396,9 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2384,8 +2411,9 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2428,9 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,8 +2443,9 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2458,9 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2444,8 +2475,9 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2458,8 +2490,9 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -2472,8 +2505,9 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -2486,8 +2520,9 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2500,8 +2535,9 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -2514,8 +2550,9 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -2528,8 +2565,9 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -2542,8 +2580,9 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
@@ -2556,8 +2595,9 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -2572,8 +2612,9 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -2588,8 +2629,9 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2602,8 +2644,9 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -2616,8 +2659,9 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -2632,8 +2676,9 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2648,8 +2693,9 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -2664,8 +2710,9 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -2678,8 +2725,9 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -2692,8 +2740,9 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
@@ -2708,8 +2757,9 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>72</v>
       </c>
@@ -2724,8 +2774,9 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
@@ -2738,8 +2789,9 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -2752,8 +2804,9 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
@@ -2768,8 +2821,9 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
@@ -2782,8 +2836,9 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>78</v>
       </c>
@@ -2796,8 +2851,9 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
@@ -2810,8 +2866,9 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
@@ -2826,8 +2883,9 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
@@ -2840,8 +2898,9 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -2854,8 +2913,9 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>83</v>
       </c>
@@ -2868,8 +2928,9 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>85</v>
       </c>
@@ -2882,8 +2943,9 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
@@ -2896,8 +2958,9 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
@@ -2912,8 +2975,9 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
@@ -2926,8 +2990,9 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
@@ -2940,8 +3005,9 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>90</v>
       </c>
@@ -2954,8 +3020,9 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2968,8 +3035,9 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>94</v>
       </c>
@@ -2982,8 +3050,9 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>96</v>
       </c>
@@ -2996,8 +3065,9 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
@@ -3012,8 +3082,9 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
@@ -3026,8 +3097,9 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>100</v>
       </c>
@@ -3040,8 +3112,9 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>102</v>
       </c>
@@ -3056,8 +3129,9 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>104</v>
       </c>
@@ -3070,8 +3144,9 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>105</v>
       </c>
@@ -3086,8 +3161,9 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
@@ -3102,8 +3178,9 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>109</v>
       </c>
@@ -3116,8 +3193,9 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>111</v>
       </c>
@@ -3130,8 +3208,9 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -3144,8 +3223,9 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>115</v>
       </c>
@@ -3158,8 +3238,9 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>117</v>
       </c>
@@ -3172,8 +3253,9 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>119</v>
       </c>
@@ -3186,8 +3268,9 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>121</v>
       </c>
@@ -3200,8 +3283,9 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>123</v>
       </c>
@@ -3216,8 +3300,9 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>125</v>
       </c>
@@ -3230,8 +3315,9 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>127</v>
       </c>
@@ -3244,8 +3330,9 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>129</v>
       </c>
@@ -3260,8 +3347,9 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>131</v>
       </c>
@@ -3276,8 +3364,9 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>133</v>
       </c>
@@ -3290,8 +3379,9 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>135</v>
       </c>
@@ -3306,8 +3396,9 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>137</v>
       </c>
@@ -3322,8 +3413,9 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>139</v>
       </c>
@@ -3338,8 +3430,9 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>141</v>
       </c>
@@ -3354,8 +3447,9 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>142</v>
       </c>
@@ -3370,8 +3464,9 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>144</v>
       </c>
@@ -3386,8 +3481,9 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>146</v>
       </c>
@@ -3402,8 +3498,9 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>148</v>
       </c>
@@ -3418,8 +3515,9 @@
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>149</v>
       </c>
@@ -3434,8 +3532,9 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>150</v>
       </c>
@@ -3450,8 +3549,9 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>151</v>
       </c>
@@ -3466,8 +3566,9 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>152</v>
       </c>
@@ -3480,8 +3581,9 @@
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>153</v>
       </c>
@@ -3494,8 +3596,9 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>154</v>
       </c>
@@ -3510,8 +3613,9 @@
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>155</v>
       </c>
@@ -3526,8 +3630,9 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>156</v>
       </c>
@@ -3542,8 +3647,9 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>157</v>
       </c>
@@ -3558,8 +3664,9 @@
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>158</v>
       </c>
@@ -3574,8 +3681,9 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>160</v>
       </c>
@@ -3590,8 +3698,9 @@
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
@@ -3604,8 +3713,9 @@
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>162</v>
       </c>
@@ -3618,8 +3728,9 @@
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
@@ -3632,8 +3743,9 @@
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
@@ -3646,8 +3758,9 @@
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>166</v>
       </c>
@@ -3660,8 +3773,9 @@
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>167</v>
       </c>
@@ -3676,8 +3790,9 @@
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>168</v>
       </c>
@@ -3692,8 +3807,9 @@
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>170</v>
       </c>
@@ -3708,8 +3824,9 @@
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>171</v>
       </c>
@@ -3724,8 +3841,9 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>172</v>
       </c>
@@ -3740,8 +3858,9 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>173</v>
       </c>
@@ -3756,8 +3875,9 @@
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>174</v>
       </c>
@@ -3772,8 +3892,9 @@
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>175</v>
       </c>
@@ -3788,8 +3909,9 @@
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>176</v>
       </c>
@@ -3804,8 +3926,9 @@
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>177</v>
       </c>
@@ -3820,8 +3943,9 @@
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>178</v>
       </c>
@@ -3836,8 +3960,9 @@
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>179</v>
       </c>
@@ -3852,8 +3977,9 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>180</v>
       </c>
@@ -3868,8 +3994,9 @@
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>182</v>
       </c>
@@ -3884,8 +4011,9 @@
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>185</v>
       </c>
@@ -3900,8 +4028,9 @@
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>186</v>
       </c>
@@ -3916,8 +4045,9 @@
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>187</v>
       </c>
@@ -3932,8 +4062,9 @@
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>188</v>
       </c>
@@ -3948,8 +4079,9 @@
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>189</v>
       </c>
@@ -3962,8 +4094,9 @@
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>190</v>
       </c>
@@ -3976,8 +4109,9 @@
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>192</v>
       </c>
@@ -3992,8 +4126,9 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>193</v>
       </c>
@@ -4008,8 +4143,9 @@
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>194</v>
       </c>
@@ -4022,8 +4158,9 @@
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>195</v>
       </c>
@@ -4036,8 +4173,9 @@
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>197</v>
       </c>
@@ -4050,8 +4188,9 @@
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>198</v>
       </c>
@@ -4064,8 +4203,9 @@
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>199</v>
       </c>
@@ -4080,8 +4220,9 @@
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>200</v>
       </c>
@@ -4096,8 +4237,9 @@
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>201</v>
       </c>
@@ -4112,8 +4254,9 @@
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>203</v>
       </c>
@@ -4128,8 +4271,9 @@
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>204</v>
       </c>
@@ -4142,8 +4286,9 @@
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>205</v>
       </c>
@@ -4158,8 +4303,9 @@
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>206</v>
       </c>
@@ -4174,8 +4320,9 @@
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>207</v>
       </c>
@@ -4190,8 +4337,9 @@
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>208</v>
       </c>
@@ -4206,8 +4354,9 @@
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>209</v>
       </c>
@@ -4220,8 +4369,9 @@
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>210</v>
       </c>
@@ -4236,8 +4386,9 @@
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>211</v>
       </c>
@@ -4252,8 +4403,9 @@
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>212</v>
       </c>
@@ -4268,8 +4420,9 @@
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>213</v>
       </c>
@@ -4282,8 +4435,9 @@
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>215</v>
       </c>
@@ -4298,8 +4452,9 @@
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>217</v>
       </c>
@@ -4314,8 +4469,9 @@
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>219</v>
       </c>
@@ -4328,8 +4484,9 @@
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>221</v>
       </c>
@@ -4344,8 +4501,9 @@
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>223</v>
       </c>
@@ -4360,8 +4518,9 @@
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>225</v>
       </c>
@@ -4374,8 +4533,9 @@
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>227</v>
       </c>
@@ -4390,8 +4550,9 @@
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>228</v>
       </c>
@@ -4404,8 +4565,9 @@
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>230</v>
       </c>
@@ -4418,8 +4580,9 @@
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>232</v>
       </c>
@@ -4434,8 +4597,9 @@
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>233</v>
       </c>
@@ -4450,8 +4614,9 @@
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>235</v>
       </c>
@@ -4464,8 +4629,9 @@
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>236</v>
       </c>
@@ -4480,8 +4646,9 @@
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>238</v>
       </c>
@@ -4496,8 +4663,9 @@
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>240</v>
       </c>
@@ -4510,8 +4678,9 @@
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>241</v>
       </c>
@@ -4524,8 +4693,9 @@
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>242</v>
       </c>
@@ -4540,8 +4710,9 @@
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>244</v>
       </c>
@@ -4556,8 +4727,9 @@
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>245</v>
       </c>
@@ -4572,8 +4744,9 @@
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>246</v>
       </c>
@@ -4588,8 +4761,9 @@
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>247</v>
       </c>
@@ -4604,8 +4778,9 @@
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>249</v>
       </c>
@@ -4620,8 +4795,9 @@
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>250</v>
       </c>
@@ -4636,8 +4812,9 @@
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>251</v>
       </c>
@@ -4652,8 +4829,9 @@
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>252</v>
       </c>
@@ -4668,8 +4846,9 @@
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>253</v>
       </c>
@@ -4682,8 +4861,9 @@
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>254</v>
       </c>
@@ -4696,8 +4876,9 @@
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>255</v>
       </c>
@@ -4712,8 +4893,9 @@
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>257</v>
       </c>
@@ -4726,8 +4908,9 @@
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>259</v>
       </c>
@@ -4742,8 +4925,9 @@
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>261</v>
       </c>
@@ -4756,8 +4940,9 @@
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>263</v>
       </c>
@@ -4770,8 +4955,9 @@
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>264</v>
       </c>
@@ -4784,8 +4970,9 @@
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>266</v>
       </c>
@@ -4800,8 +4987,9 @@
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>267</v>
       </c>
@@ -4816,8 +5004,9 @@
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>268</v>
       </c>
@@ -4832,8 +5021,9 @@
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>270</v>
       </c>
@@ -4846,8 +5036,9 @@
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>271</v>
       </c>
@@ -4860,8 +5051,9 @@
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>272</v>
       </c>
@@ -4874,8 +5066,9 @@
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>273</v>
       </c>
@@ -4890,8 +5083,9 @@
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>274</v>
       </c>
@@ -4904,8 +5098,9 @@
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>275</v>
       </c>
@@ -4920,8 +5115,9 @@
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>276</v>
       </c>
@@ -4934,8 +5130,9 @@
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>277</v>
       </c>
@@ -4948,8 +5145,9 @@
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>278</v>
       </c>
@@ -4962,8 +5160,9 @@
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>279</v>
       </c>
@@ -4976,8 +5175,9 @@
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>280</v>
       </c>
@@ -4990,8 +5190,9 @@
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>281</v>
       </c>
@@ -5004,8 +5205,9 @@
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>282</v>
       </c>
@@ -5020,8 +5222,9 @@
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>284</v>
       </c>
@@ -5034,8 +5237,9 @@
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>286</v>
       </c>
@@ -5048,8 +5252,9 @@
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>288</v>
       </c>
@@ -5062,8 +5267,9 @@
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>290</v>
       </c>
@@ -5076,8 +5282,9 @@
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>292</v>
       </c>
@@ -5090,8 +5297,9 @@
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>294</v>
       </c>
@@ -5104,8 +5312,9 @@
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>296</v>
       </c>
@@ -5118,8 +5327,9 @@
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>298</v>
       </c>
@@ -5132,8 +5342,9 @@
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>300</v>
       </c>
@@ -5146,8 +5357,9 @@
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>302</v>
       </c>
@@ -5160,8 +5372,9 @@
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>304</v>
       </c>
@@ -5174,8 +5387,9 @@
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>306</v>
       </c>
@@ -5188,8 +5402,9 @@
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>307</v>
       </c>
@@ -5204,8 +5419,9 @@
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>308</v>
       </c>
@@ -5218,8 +5434,9 @@
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>309</v>
       </c>
@@ -5234,8 +5451,9 @@
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>310</v>
       </c>
@@ -5248,8 +5466,9 @@
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>311</v>
       </c>
@@ -5262,8 +5481,9 @@
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>312</v>
       </c>
@@ -5276,8 +5496,9 @@
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>313</v>
       </c>
@@ -5290,8 +5511,9 @@
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>314</v>
       </c>
@@ -5304,8 +5526,9 @@
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>315</v>
       </c>
@@ -5318,8 +5541,9 @@
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>316</v>
       </c>
@@ -5332,8 +5556,9 @@
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>317</v>
       </c>
@@ -5346,8 +5571,9 @@
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>318</v>
       </c>
@@ -5360,8 +5586,9 @@
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>319</v>
       </c>
@@ -5374,8 +5601,9 @@
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>320</v>
       </c>
@@ -5388,8 +5616,9 @@
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>321</v>
       </c>
@@ -5402,8 +5631,9 @@
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>322</v>
       </c>
@@ -5416,8 +5646,9 @@
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>323</v>
       </c>
@@ -5430,8 +5661,9 @@
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>324</v>
       </c>
@@ -5444,8 +5676,9 @@
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>325</v>
       </c>
@@ -5458,8 +5691,9 @@
       </c>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>326</v>
       </c>
@@ -5472,8 +5706,9 @@
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>327</v>
       </c>
@@ -5486,8 +5721,9 @@
       </c>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>328</v>
       </c>
@@ -5500,8 +5736,9 @@
       </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>330</v>
       </c>
@@ -5514,8 +5751,9 @@
       </c>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>332</v>
       </c>
@@ -5530,8 +5768,9 @@
       </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>333</v>
       </c>
@@ -5546,8 +5785,9 @@
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>334</v>
       </c>
@@ -5562,8 +5802,9 @@
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>335</v>
       </c>
@@ -5578,8 +5819,9 @@
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>336</v>
       </c>
@@ -5594,8 +5836,9 @@
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>338</v>
       </c>
@@ -5610,8 +5853,9 @@
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>339</v>
       </c>
@@ -5626,8 +5870,9 @@
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>340</v>
       </c>
@@ -5642,8 +5887,9 @@
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>341</v>
       </c>
@@ -5658,8 +5904,9 @@
       </c>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>342</v>
       </c>
@@ -5674,8 +5921,9 @@
       </c>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>343</v>
       </c>
@@ -5690,8 +5938,9 @@
       </c>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>344</v>
       </c>
@@ -5706,8 +5955,9 @@
       </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>345</v>
       </c>
@@ -5722,8 +5972,9 @@
       </c>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>346</v>
       </c>
@@ -5738,8 +5989,9 @@
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>347</v>
       </c>
@@ -5754,8 +6006,9 @@
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>348</v>
       </c>
@@ -5770,8 +6023,9 @@
       </c>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>349</v>
       </c>
@@ -5786,8 +6040,9 @@
       </c>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>350</v>
       </c>
@@ -5800,8 +6055,9 @@
       </c>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>351</v>
       </c>
@@ -5814,8 +6070,9 @@
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>352</v>
       </c>
@@ -5828,8 +6085,9 @@
       </c>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>353</v>
       </c>
@@ -5842,8 +6100,9 @@
       </c>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>354</v>
       </c>
@@ -5856,8 +6115,9 @@
       </c>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>355</v>
       </c>
@@ -5870,8 +6130,9 @@
       </c>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>356</v>
       </c>
@@ -5884,8 +6145,9 @@
       </c>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>358</v>
       </c>
@@ -5898,8 +6160,9 @@
       </c>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>360</v>
       </c>
@@ -5912,8 +6175,9 @@
       </c>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>362</v>
       </c>
@@ -5926,8 +6190,9 @@
       </c>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>364</v>
       </c>
@@ -5940,8 +6205,9 @@
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>366</v>
       </c>
@@ -5954,8 +6220,9 @@
       </c>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>368</v>
       </c>
@@ -5968,8 +6235,9 @@
       </c>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>370</v>
       </c>
@@ -5982,8 +6250,9 @@
       </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>372</v>
       </c>
@@ -5996,8 +6265,9 @@
       </c>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>374</v>
       </c>
@@ -6012,8 +6282,9 @@
       </c>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>376</v>
       </c>
@@ -6028,8 +6299,9 @@
       </c>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>380</v>
       </c>
@@ -6038,6 +6310,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
